--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43E57F05-F872-419E-A96D-6C6CA93246FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -348,13 +347,19 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>faltan los de update, inserts ya hechos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +413,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -610,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,58 +669,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,22 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,9 +710,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C1628-72ED-4D56-9DEB-53E6C60D570F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1051,14 +1065,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="30" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="30" customWidth="1"/>
     <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
@@ -1066,71 +1080,71 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="40" t="s">
         <v>77</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="41" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="27">
         <v>14</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32" t="s">
         <v>98</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -1140,26 +1154,26 @@
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="28" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="28">
         <v>15</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>99</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -1168,26 +1182,26 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="27">
         <v>16</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>100</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1196,26 +1210,26 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="28" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="28">
         <v>17</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>101</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1224,26 +1238,26 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="28" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="27">
         <v>18</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1252,26 +1266,26 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="28">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="28">
         <v>19</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>103</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -1280,26 +1294,26 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="27">
         <v>20</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>104</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -1308,26 +1322,26 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="28">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="28">
         <v>21</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>105</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1336,172 +1350,172 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="9"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="9"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="28" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="9"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="9"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="28" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="9"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="28"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="9"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="9"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="9"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="9"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="9"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="10"/>
       <c r="J22" s="3"/>
     </row>
@@ -1520,33 +1534,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,10 +1580,10 @@
       <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="3"/>
@@ -1577,10 +1592,10 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="3"/>
@@ -1605,11 +1620,15 @@
       <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -1644,10 +1663,10 @@
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="3"/>
@@ -1663,7 +1682,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="64"/>
       <c r="E11" t="s">
         <v>36</v>
       </c>
@@ -1765,7 +1784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FC714-F48D-43C0-A1A9-3A577A6148C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1782,24 +1801,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="E1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1822,16 +1841,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="E4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1894,11 +1913,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1932,16 +1951,16 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="E12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -1972,11 +1991,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2076,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAA3160-82E3-45BC-B310-F18EC04D4CC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2091,16 +2110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2246,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEBD45-0793-4925-A547-A1D629B06294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2261,16 +2280,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>Alvaro</t>
-  </si>
-  <si>
-    <t>faltan los de update, inserts ya hechos</t>
   </si>
 </sst>
 </file>
@@ -710,6 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,7 +774,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1080,45 +1077,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="40" t="s">
         <v>77</v>
       </c>
@@ -1537,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,22 +1543,22 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1626,9 +1623,7 @@
       <c r="C7" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1677,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="42"/>
       <c r="E11" t="s">
         <v>36</v>
       </c>
@@ -1801,24 +1796,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1841,16 +1836,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="E4" s="61" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1913,11 +1908,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1951,16 +1946,16 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="E12" s="58" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="E12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -1991,11 +1986,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2110,16 +2105,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2280,16 +2275,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43E57F05-F872-419E-A96D-6C6CA93246FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE41143D-D212-4C28-B24D-501B4F40A8DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -278,9 +278,6 @@
     <t>EMPLEOXREQUISITOS</t>
   </si>
   <si>
-    <t>EMPLEO- PERSONA</t>
-  </si>
-  <si>
     <t>EMPLEO- REQUISITOS</t>
   </si>
   <si>
@@ -335,19 +332,22 @@
     <t>PHONENUMBER</t>
   </si>
   <si>
-    <t>EMPxPERSON</t>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
-  </si>
-  <si>
-    <t>EMPxREQ</t>
-  </si>
-  <si>
-    <t>NAC-INDUSTRY-DISTRITO-TYPE_PERSON-</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>NAC-INDUSTRY-DISTRITO-TYPE_PERSON</t>
+  </si>
+  <si>
+    <t>EMPLEO-PERSON</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>JOBxPERSON</t>
+  </si>
+  <si>
+    <t>JOBxREQ</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,58 +656,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,22 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,8 +697,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,20 +1048,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C1628-72ED-4D56-9DEB-53E6C60D570F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="30" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="30" customWidth="1"/>
     <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
@@ -1066,101 +1069,105 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="40" t="s">
         <v>77</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>107</v>
+      <c r="C4" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="43">
+        <v>90</v>
+      </c>
+      <c r="E4" s="27">
         <v>14</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48" t="s">
-        <v>98</v>
+      <c r="G4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>107</v>
+      <c r="C5" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="28">
         <v>15</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
-        <v>99</v>
+      <c r="G5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>78</v>
@@ -1168,27 +1175,29 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>107</v>
+      <c r="C6" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="43">
+        <v>91</v>
+      </c>
+      <c r="E6" s="27">
         <v>16</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
-        <v>100</v>
+      <c r="G6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>79</v>
@@ -1196,27 +1205,29 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>107</v>
+      <c r="C7" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="28">
         <v>17</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
-        <v>101</v>
+      <c r="G7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>78</v>
@@ -1224,27 +1235,29 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>107</v>
+      <c r="C8" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="43">
+        <v>89</v>
+      </c>
+      <c r="E8" s="27">
         <v>18</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>102</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>78</v>
@@ -1252,256 +1265,262 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="28">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="28">
+        <v>19</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="27">
+        <v>20</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="28">
+        <v>21</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="44">
-        <v>19</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>7</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="43">
-        <v>20</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>9</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
-        <v>8</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="44">
-        <v>21</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>9</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="9"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>107</v>
+      <c r="C13" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="9"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>107</v>
+      <c r="C14" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+        <v>94</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="9"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>107</v>
+      <c r="C15" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="9"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>107</v>
+      <c r="C16" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="9"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="28"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="9"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="9"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="9"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="9"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="9"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="10"/>
       <c r="J22" s="3"/>
     </row>
@@ -1523,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1536,17 +1555,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,10 +1584,10 @@
       <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="3"/>
@@ -1577,10 +1596,10 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="3"/>
@@ -1644,10 +1663,10 @@
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="3"/>
@@ -1782,24 +1801,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="E1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1822,16 +1841,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="E4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1894,11 +1913,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1932,16 +1951,16 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="E12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -1972,11 +1991,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2091,16 +2110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2261,16 +2280,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE41143D-D212-4C28-B24D-501B4F40A8DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{16CEE4E5-EFD0-43DD-AE4C-6A6DC29156B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -239,9 +239,6 @@
     <t>CARRERA</t>
   </si>
   <si>
-    <t>REQUISITOS</t>
-  </si>
-  <si>
     <t>GRADO ACADEMICO</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>STATE</t>
   </si>
   <si>
-    <t>BENEFITS</t>
-  </si>
-  <si>
     <t>CAREER</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>JOB_POSITION</t>
   </si>
   <si>
-    <t>REQUIRIMENTS</t>
-  </si>
-  <si>
     <t>TYPE_PERSON</t>
   </si>
   <si>
@@ -348,6 +339,18 @@
   </si>
   <si>
     <t>JOBxREQ</t>
+  </si>
+  <si>
+    <t>BENEFIT</t>
+  </si>
+  <si>
+    <t>REQUIRIMENT</t>
+  </si>
+  <si>
+    <t>REQUISITO</t>
+  </si>
+  <si>
+    <t>ALVARO</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +431,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -610,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +706,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,9 +775,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C1628-72ED-4D56-9DEB-53E6C60D570F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,47 +1079,47 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="F3" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -1118,28 +1128,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="27">
         <v>14</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="19"/>
@@ -1149,28 +1159,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E5" s="28">
         <v>15</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -1182,25 +1192,25 @@
         <v>70</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="27">
         <v>16</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -1209,13 +1219,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E7" s="28">
         <v>17</v>
@@ -1224,13 +1234,13 @@
         <v>68</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -1239,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E8" s="27">
         <v>18</v>
@@ -1254,13 +1264,13 @@
         <v>69</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -1269,28 +1279,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="28">
         <v>19</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="64" t="s">
-        <v>105</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -1299,28 +1309,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="27">
         <v>20</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -1332,25 +1342,25 @@
         <v>67</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="28">
         <v>21</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -1362,10 +1372,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="32"/>
@@ -1382,10 +1392,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="32"/>
@@ -1399,13 +1409,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="32"/>
@@ -1419,13 +1429,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="32"/>
@@ -1442,10 +1452,10 @@
         <v>65</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="32"/>
@@ -1542,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,17 +1565,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1614,9 +1624,11 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="s">
+      <c r="E6" s="65" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1627,9 +1639,11 @@
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" t="s">
+      <c r="E7" s="65" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1642,7 +1656,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="3"/>
-      <c r="E8" t="s">
+      <c r="E8" s="65" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1801,24 +1815,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1841,16 +1855,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="E4" s="61" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1913,11 +1927,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1951,16 +1965,16 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="E12" s="58" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="E12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -1991,11 +2005,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2110,16 +2124,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2280,16 +2294,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{16CEE4E5-EFD0-43DD-AE4C-6A6DC29156B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -350,13 +349,13 @@
     <t>REQUISITO</t>
   </si>
   <si>
-    <t>ALVARO</t>
+    <t>Alvaro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,6 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,7 +775,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6C1628-72ED-4D56-9DEB-53E6C60D570F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1079,45 +1078,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="40" t="s">
         <v>76</v>
       </c>
@@ -1549,11 +1548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,17 +1564,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1628,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="43" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1643,7 +1642,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1656,7 +1655,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1695,7 +1694,9 @@
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
         <v>36</v>
@@ -1708,7 +1709,9 @@
       <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
         <v>50</v>
@@ -1798,7 +1801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FC714-F48D-43C0-A1A9-3A577A6148C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1815,24 +1818,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="E1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1855,16 +1858,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="E4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1927,11 +1930,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1965,16 +1968,16 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="E12" s="59" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="E12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -2005,11 +2008,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2109,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAA3160-82E3-45BC-B310-F18EC04D4CC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2124,16 +2127,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2279,7 +2282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEBD45-0793-4925-A547-A1D629B06294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,16 +2297,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E43BFAD5-2017-40C8-A476-39C2C9A4E5F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
-    <sheet name="GENERALES" sheetId="1" r:id="rId2"/>
-    <sheet name="CONSULT-EST" sheetId="2" r:id="rId3"/>
-    <sheet name="INTERFAZ" sheetId="3" r:id="rId4"/>
-    <sheet name="DOCU" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId2"/>
+    <sheet name="GENERALES" sheetId="1" r:id="rId3"/>
+    <sheet name="CONSULT-EST" sheetId="2" r:id="rId4"/>
+    <sheet name="INTERFAZ" sheetId="3" r:id="rId5"/>
+    <sheet name="DOCU" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -350,12 +352,15 @@
   </si>
   <si>
     <t>Alvaro</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +779,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,29 +1068,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="30" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="30" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1085,10 +1099,12 @@
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -1097,10 +1113,12 @@
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
@@ -1108,21 +1126,23 @@
         <v>60</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="G3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -1132,318 +1152,364 @@
       <c r="C4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="27">
+      <c r="F4" s="27">
         <v>14</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="B5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="28">
         <v>15</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="B6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="27">
         <v>16</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="D7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="28">
         <v>17</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="B8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="27">
         <v>18</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="D9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="28">
         <v>19</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="27">
         <v>20</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>8</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="D11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="28">
         <v>21</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>10</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>13</v>
       </c>
@@ -1453,94 +1519,110 @@
       <c r="C16" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="27"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="27"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="27"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="37"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="27"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="36"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="28"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="36"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="28"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="38"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="3"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="B4:B19">
-    <sortCondition ref="B4"/>
+  <sortState ref="B5:E16">
+    <sortCondition ref="E5:E16"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1548,10 +1630,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F37C65-FC28-4F1E-BAEB-C33693D9E1DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1800,8 +1894,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2111,8 +2205,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2281,8 +2375,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -3,17 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E43BFAD5-2017-40C8-A476-39C2C9A4E5F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCEAFEAD-FBA6-415A-BD76-1227C3D0D43D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId2"/>
-    <sheet name="GENERALES" sheetId="1" r:id="rId3"/>
-    <sheet name="CONSULT-EST" sheetId="2" r:id="rId4"/>
-    <sheet name="INTERFAZ" sheetId="3" r:id="rId5"/>
-    <sheet name="DOCU" sheetId="5" r:id="rId6"/>
+    <sheet name="GENERALES" sheetId="1" r:id="rId2"/>
+    <sheet name="CONSULT-EST" sheetId="2" r:id="rId3"/>
+    <sheet name="INTERFAZ" sheetId="3" r:id="rId4"/>
+    <sheet name="DOCU" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -354,7 +353,13 @@
     <t>Alvaro</t>
   </si>
   <si>
-    <t>--</t>
+    <t>EMPLEOXBENEFICIO</t>
+  </si>
+  <si>
+    <t>JOBXBENF</t>
+  </si>
+  <si>
+    <t>EMPLEO-BENEFICIO</t>
   </si>
 </sst>
 </file>
@@ -623,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,10 +715,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,15 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,51 +1106,51 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="40" t="s">
         <v>76</v>
       </c>
@@ -1167,8 +1181,10 @@
       <c r="H4" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="32" t="s">
+      <c r="I4" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>94</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -1202,7 +1218,9 @@
       <c r="H5" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="J5" s="33" t="s">
         <v>95</v>
       </c>
@@ -1236,7 +1254,7 @@
       <c r="H6" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="32" t="s">
         <v>96</v>
       </c>
@@ -1270,7 +1288,9 @@
       <c r="H7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="J7" s="33" t="s">
         <v>97</v>
       </c>
@@ -1304,7 +1324,9 @@
       <c r="H8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="J8" s="33" t="s">
         <v>98</v>
       </c>
@@ -1338,8 +1360,10 @@
       <c r="H9" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="42" t="s">
+      <c r="I9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>102</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -1372,7 +1396,9 @@
       <c r="H10" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="J10" s="32" t="s">
         <v>103</v>
       </c>
@@ -1406,7 +1432,9 @@
       <c r="H11" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="J11" s="32" t="s">
         <v>104</v>
       </c>
@@ -1425,18 +1453,30 @@
       <c r="C12" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="67" t="s">
-        <v>109</v>
+      <c r="D12" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="9"/>
+      <c r="F12" s="27">
+        <v>22</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1449,8 +1489,8 @@
       <c r="C13" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="68" t="s">
-        <v>109</v>
+      <c r="D13" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>91</v>
@@ -1458,7 +1498,7 @@
       <c r="F13" s="27"/>
       <c r="G13" s="32"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="32"/>
       <c r="K13" s="9"/>
       <c r="L13" s="3"/>
@@ -1482,7 +1522,7 @@
       <c r="F14" s="27"/>
       <c r="G14" s="32"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="32"/>
       <c r="K14" s="9"/>
       <c r="L14" s="3"/>
@@ -1497,14 +1537,16 @@
       <c r="C15" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="32"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="32"/>
       <c r="K15" s="9"/>
       <c r="L15" s="3"/>
@@ -1519,8 +1561,8 @@
       <c r="C16" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>109</v>
+      <c r="D16" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>93</v>
@@ -1528,7 +1570,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="32"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="32"/>
       <c r="K16" s="9"/>
       <c r="L16" s="3"/>
@@ -1541,7 +1583,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="32"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="32"/>
       <c r="K17" s="9"/>
       <c r="L17" s="3"/>
@@ -1554,7 +1596,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="33"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="33"/>
       <c r="K18" s="9"/>
       <c r="L18" s="3"/>
@@ -1568,7 +1610,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="33"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="33"/>
       <c r="K19" s="9"/>
       <c r="L19" s="3"/>
@@ -1582,7 +1624,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="33"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="33"/>
       <c r="K20" s="9"/>
       <c r="L20" s="3"/>
@@ -1596,7 +1638,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="33"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="33"/>
       <c r="K21" s="9"/>
       <c r="L21" s="3"/>
@@ -1610,7 +1652,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="34"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="34"/>
       <c r="K22" s="10"/>
       <c r="L22" s="3"/>
@@ -1630,23 +1672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F37C65-FC28-4F1E-BAEB-C33693D9E1DD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,17 +1688,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1736,7 +1766,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1747,9 +1777,11 @@
       <c r="B8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="42" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1760,7 +1792,9 @@
       <c r="B9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
         <v>34</v>
@@ -1894,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -1912,24 +1946,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="E1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1952,16 +1986,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="E4" s="63" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="E4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -2024,11 +2058,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -2062,16 +2096,16 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="E12" s="60" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="E12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -2102,11 +2136,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2205,7 +2239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2221,16 +2255,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2375,7 +2409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2391,16 +2425,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCEAFEAD-FBA6-415A-BD76-1227C3D0D43D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02811D30-3E98-4144-BE70-6ACB9640B05F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -360,6 +360,39 @@
   </si>
   <si>
     <t>EMPLEO-BENEFICIO</t>
+  </si>
+  <si>
+    <t>PENDIENTES MARIELA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE PERSONA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE JOB - EMPRESA</t>
+  </si>
+  <si>
+    <t>NAKI</t>
+  </si>
+  <si>
+    <t>INSCRIPCION DE PERSONA EN JOB</t>
+  </si>
+  <si>
+    <t>ENVÍO DE CV A EMPRESA</t>
+  </si>
+  <si>
+    <t>CAMBIOS DE CLAVE</t>
+  </si>
+  <si>
+    <t>REGISTRO CATALOGOS</t>
+  </si>
+  <si>
+    <t>EDICION CATALOGOS</t>
+  </si>
+  <si>
+    <t>ELIMINAR CATALOGOS</t>
+  </si>
+  <si>
+    <t>CONSULTAS DE NAME DE CATALOGOS - COMBOBOX</t>
   </si>
 </sst>
 </file>
@@ -628,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,6 +836,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1673,35 +1708,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
       <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1758,17 @@
         <v>2</v>
       </c>
       <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -1724,8 +1779,15 @@
         <v>37</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="73"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1739,8 +1801,15 @@
       <c r="E5" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1754,8 +1823,15 @@
       <c r="E6" s="42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="15">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1769,8 +1845,15 @@
       <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="15">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -1784,8 +1867,15 @@
       <c r="E8" s="42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="15">
+        <v>5</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -1799,8 +1889,13 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -1814,8 +1909,15 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="15">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -1829,8 +1931,15 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="15">
+        <v>8</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -1844,8 +1953,15 @@
       <c r="E12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="15">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -1854,8 +1970,13 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="15">
+        <v>10</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>11</v>
       </c>
@@ -1864,8 +1985,17 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="15">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>12</v>
       </c>
@@ -1874,8 +2004,13 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="15">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>13</v>
       </c>
@@ -1884,32 +2019,52 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="15">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="9"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="15">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="9"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="15">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="15">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -1918,10 +2073,16 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="3"/>
+      <c r="G20" s="16">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LISTA DE PENDIENTES.xlsx
+++ b/LISTA DE PENDIENTES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02811D30-3E98-4144-BE70-6ACB9640B05F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2AD8AAE-38B4-44F9-9CCE-1A5FCB411FBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>CONSULTAS DE NAME DE CATALOGOS - COMBOBOX</t>
+  </si>
+  <si>
+    <t>Naki</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -661,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,6 +776,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,8 +844,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1141,51 +1150,51 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="40" t="s">
         <v>76</v>
       </c>
@@ -1711,7 +1720,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,26 +1735,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="17"/>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="17"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -1782,10 +1791,10 @@
       <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -1968,7 +1977,9 @@
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="G13" s="15">
         <v>10</v>
@@ -1983,7 +1994,9 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="G14" s="15">
         <v>11</v>
@@ -2017,7 +2030,9 @@
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="G16" s="15">
         <v>13</v>
@@ -2093,38 +2108,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="E1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2133,7 +2148,7 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="74" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -2147,16 +2162,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="E4" s="69" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="E4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -2165,7 +2180,9 @@
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="E5" s="21">
         <v>1</v>
       </c>
@@ -2181,7 +2198,9 @@
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -2197,7 +2216,7 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="15"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -2209,7 +2228,7 @@
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="15"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -2219,11 +2238,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -2239,7 +2258,7 @@
       <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="15"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -2251,22 +2270,22 @@
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="16"/>
       <c r="E11" s="2"/>
       <c r="F11" s="22"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="E12" s="66" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="E12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -2275,7 +2294,7 @@
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="15"/>
       <c r="E13" s="15">
         <v>1</v>
       </c>
@@ -2287,7 +2306,7 @@
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="16"/>
       <c r="E14" s="15">
         <v>2</v>
       </c>
@@ -2297,11 +2316,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
@@ -2315,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="15"/>
       <c r="E16" s="16">
         <v>5</v>
       </c>
@@ -2327,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="15"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2335,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="15"/>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="15"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2351,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="16"/>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,16 +2435,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2586,16 +2605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
